--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="132">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,61 +70,61 @@
     <t>low</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>better</t>
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
         <v>40</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>0.896551724137931</v>
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>0.8503937007874016</v>
@@ -957,7 +957,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5">
         <v>0.8376068376068376</v>
@@ -1007,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6">
         <v>0.8363636363636363</v>
@@ -1057,7 +1057,7 @@
         <v>100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7">
         <v>0.8</v>
@@ -1107,7 +1107,7 @@
         <v>47</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8">
         <v>0.7333333333333333</v>
@@ -1157,7 +1157,7 @@
         <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9">
         <v>0.7278481012658228</v>
@@ -1207,28 +1207,28 @@
         <v>379</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.7272727272727273</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L10">
         <v>168</v>
       </c>
       <c r="M10">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1257,7 +1257,7 @@
         <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11">
         <v>0.7</v>
@@ -1307,7 +1307,7 @@
         <v>130</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12">
         <v>0.6847826086956522</v>
@@ -1336,28 +1336,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.09090909090909091</v>
+        <v>0.01420765027322404</v>
       </c>
       <c r="C13">
         <v>13</v>
       </c>
       <c r="D13">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="E13">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F13">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>130</v>
+        <v>902</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13">
         <v>0.6808510638297872</v>
@@ -1386,28 +1386,28 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01420765027322404</v>
+        <v>0.01335656213704994</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>444</v>
       </c>
       <c r="E14">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F14">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>902</v>
+        <v>1699</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14">
         <v>0.6111111111111112</v>
@@ -1436,49 +1436,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01335656213704994</v>
+        <v>0.01180781758957655</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>444</v>
+        <v>680</v>
       </c>
       <c r="E15">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F15">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1699</v>
+        <v>2427</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.6024464831804281</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L15">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="M15">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1486,76 +1486,52 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01180781758957655</v>
+        <v>0.004656160458452722</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>680</v>
+        <v>422</v>
       </c>
       <c r="E16">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F16">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>2427</v>
+        <v>2779</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K16">
-        <v>0.5909090909090909</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L16">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="M16">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.004656160458452722</v>
-      </c>
-      <c r="C17">
-        <v>13</v>
-      </c>
-      <c r="D17">
-        <v>422</v>
-      </c>
-      <c r="E17">
-        <v>0.97</v>
-      </c>
-      <c r="F17">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>2779</v>
-      </c>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1581,7 +1557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1607,7 +1583,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1633,7 +1609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1659,7 +1635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1685,7 +1661,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1711,7 +1687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
         <v>43</v>
       </c>
@@ -1737,7 +1713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1763,7 +1739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
         <v>45</v>
       </c>
@@ -1789,7 +1765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
         <v>46</v>
       </c>
@@ -1815,7 +1791,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
         <v>47</v>
       </c>
@@ -1841,7 +1817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,7 +1843,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1893,7 +1869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1919,7 +1895,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
         <v>51</v>
       </c>
@@ -1945,7 +1921,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
         <v>52</v>
       </c>
@@ -2909,7 +2885,7 @@
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K69">
         <v>0.2115009746588694</v>
@@ -3039,7 +3015,7 @@
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K74">
         <v>0.1985849056603774</v>
@@ -3585,7 +3561,7 @@
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K95">
         <v>0.1282936010037641</v>
@@ -4053,7 +4029,7 @@
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K113">
         <v>0.05549738219895288</v>
